--- a/data/trans_bre/P19C05-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P19C05-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.218751593884305</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.988455450063398</v>
+        <v>5.988455450063402</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1762858434834151</v>
@@ -649,7 +649,7 @@
         <v>0.1338510246524006</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.8421858308860906</v>
+        <v>0.842185830886091</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.869511314208423</v>
+        <v>-1.957345471299621</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.222766702757021</v>
+        <v>-1.13290185613579</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.80245636542817</v>
+        <v>-1.684794432569604</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.735391072993497</v>
+        <v>2.696240595431164</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.08367682963091523</v>
+        <v>-0.09199362244445231</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.08103942988767704</v>
+        <v>-0.06983945792823702</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1715314020516739</v>
+        <v>-0.1555914030084971</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2831897070645064</v>
+        <v>0.288008365063849</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.825296833660103</v>
+        <v>8.212682389078761</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.227631005548711</v>
+        <v>6.101645692491791</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.392941044698232</v>
+        <v>4.24964379560328</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.946646211881806</v>
+        <v>9.033868741485767</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4809590544098772</v>
+        <v>0.51554800470518</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4929528810993588</v>
+        <v>0.4911757619652408</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5610480058937066</v>
+        <v>0.5769932769686296</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.649645235633421</v>
+        <v>1.681934333236267</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.5620803795113107</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.166059096213463</v>
+        <v>1.166059096213466</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0799144103627578</v>
@@ -749,7 +749,7 @@
         <v>0.0480992468061741</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1118418723165976</v>
+        <v>0.1118418723165979</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.303911948672736</v>
+        <v>-2.630055986013576</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.396450164347319</v>
+        <v>2.411050324475739</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.856738507346318</v>
+        <v>-2.892573412322588</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.469340213782482</v>
+        <v>-1.40092561985051</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1422973799859453</v>
+        <v>-0.1649313337961041</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1470581417426681</v>
+        <v>0.1382719997751845</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2097038982336603</v>
+        <v>-0.21912243661544</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1197571477519818</v>
+        <v>-0.1187124251578755</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.489849095600485</v>
+        <v>4.455003139725563</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.623565342739829</v>
+        <v>9.884778717507363</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.877118375879589</v>
+        <v>3.811677855369686</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.450975821678944</v>
+        <v>3.411797864023908</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3775095360604744</v>
+        <v>0.3623304313164842</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8182828223576489</v>
+        <v>0.851962244328251</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3801739915580978</v>
+        <v>0.3888209258770963</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3910139979424103</v>
+        <v>0.367810567541706</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.229270626349561</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.777442771260109</v>
+        <v>0.7774427712601104</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1868188870951462</v>
@@ -849,7 +849,7 @@
         <v>0.1168805083990892</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.07175647334859769</v>
+        <v>0.07175647334859782</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.916094626390746</v>
+        <v>-0.9680872554933249</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.323945153153885</v>
+        <v>-1.38576095464758</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.114424070938909</v>
+        <v>-2.283971226157509</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.699722733948762</v>
+        <v>-1.936753804367121</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1493339860362123</v>
+        <v>-0.0732035299779938</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.0710972817553342</v>
+        <v>-0.07163049925387281</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1816978138113857</v>
+        <v>-0.1911608628611811</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1427058295198442</v>
+        <v>-0.1571311841492933</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.160846795699054</v>
+        <v>5.232879844385101</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.699065383439266</v>
+        <v>6.772733962273235</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.782446954395525</v>
+        <v>4.621462609798477</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.31424130671718</v>
+        <v>3.198985842773752</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5031496470954323</v>
+        <v>0.5192878882133602</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4332709286998116</v>
+        <v>0.4525186997106191</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5507420988765843</v>
+        <v>0.5185492082267322</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3439592729412254</v>
+        <v>0.3342660413731473</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.918770615291154</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7467344594206713</v>
+        <v>0.746734459420674</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.005140310322432408</v>
@@ -949,7 +949,7 @@
         <v>0.1730865348815646</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.06379132665592005</v>
+        <v>0.06379132665592029</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.517761791766071</v>
+        <v>-4.517348311032915</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.668043460697787</v>
+        <v>-4.566335406063885</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.51400970711714</v>
+        <v>-2.834684754449344</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.806309745737198</v>
+        <v>-2.055154944052346</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3928543732666669</v>
+        <v>-0.3171082466635657</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2711761958852766</v>
+        <v>-0.2702170171330984</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2097360231245765</v>
+        <v>-0.2246814346800956</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1422906594963047</v>
+        <v>-0.1518448416686615</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.833415895125874</v>
+        <v>6.211761962731285</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.598748306388121</v>
+        <v>5.569170995940275</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.358847468819211</v>
+        <v>6.774208663324245</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.282181985795585</v>
+        <v>3.380080153353935</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5959290059212663</v>
+        <v>0.6448183433894543</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4176930311142004</v>
+        <v>0.4478807427221074</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6708720542036898</v>
+        <v>0.7398491864168291</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.317678943163608</v>
+        <v>0.3439196884180694</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.1064461781499857</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.151939338843619</v>
+        <v>0.1519393388436189</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6118929185937442</v>
+        <v>0.5661424769775499</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.338803860293011</v>
+        <v>1.282070637233234</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.593399692780604</v>
+        <v>-0.5800543980853051</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1644938781163423</v>
+        <v>0.3413151850721673</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.04249519401961818</v>
+        <v>0.03965314381638722</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08116981971308007</v>
+        <v>0.08248445846258744</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.0513216655815044</v>
+        <v>-0.05314739639281758</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.01203105351338982</v>
+        <v>0.02789716555905826</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.542409800600245</v>
+        <v>4.532369607879986</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.355691503337368</v>
+        <v>5.389811585169049</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.857412353005254</v>
+        <v>2.68103453115665</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.866547367913234</v>
+        <v>2.932151025973935</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3661942151331748</v>
+        <v>0.3613991064581737</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3793662256272654</v>
+        <v>0.3886639126797216</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3000388344826752</v>
+        <v>0.269131277949138</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2912151096958885</v>
+        <v>0.3046283814310904</v>
       </c>
     </row>
     <row r="19">
